--- a/data/2024-04-01/SCW Weekly Comp 2024-04-01 (Responses).xlsx
+++ b/data/2024-04-01/SCW Weekly Comp 2024-04-01 (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="285">
   <si>
     <t>Timestamp</t>
   </si>
@@ -238,6 +238,27 @@
     <t>https://www.facebook.com/events/405769728858313/?post_id=410113218423964&amp;view=permalink</t>
   </si>
   <si>
+    <t>Peter Andersson</t>
+  </si>
+  <si>
+    <t>2013ANDE01</t>
+  </si>
+  <si>
+    <t>4x4x4 Blindfolded</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/1075936833483182/?post_id=1080225006387698&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>9:09.76</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
     <t>Daniel Houghton</t>
   </si>
   <si>
@@ -262,9 +283,6 @@
     <t>https://www.facebook.com/events/1075936833483182/?post_id=1080697276340471&amp;view=permalink</t>
   </si>
   <si>
-    <t>DNF</t>
-  </si>
-  <si>
     <t>6x6x6</t>
   </si>
   <si>
@@ -364,9 +382,6 @@
     <t>1:33.52</t>
   </si>
   <si>
-    <t>DNS</t>
-  </si>
-  <si>
     <t>1:41.84</t>
   </si>
   <si>
@@ -839,6 +854,18 @@
   </si>
   <si>
     <t>https://www.facebook.com/events/381145698080463/?post_id=387329717462061&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/events/1075936833483182/?post_id=1078457586564440&amp;view=permalink</t>
+  </si>
+  <si>
+    <t>Ed submitting as it went into the wrong results week</t>
+  </si>
+  <si>
+    <t>2:39.83</t>
+  </si>
+  <si>
+    <t>4:28.55</t>
   </si>
 </sst>
 </file>
@@ -848,7 +875,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -863,6 +890,15 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -879,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -892,6 +928,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2042,757 +2087,856 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
-        <v>45391.62482696759</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="5">
+        <v>45390.748776736116</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O17" s="3">
-        <v>17.97</v>
-      </c>
-      <c r="P17" s="3">
-        <v>19.87</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>15.38</v>
-      </c>
-      <c r="R17" s="3">
-        <v>15.25</v>
-      </c>
-      <c r="S17" s="3">
-        <v>16.44</v>
-      </c>
-      <c r="T17" s="3">
-        <v>15.25</v>
-      </c>
-      <c r="U17" s="3">
-        <v>16.6</v>
-      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="6"/>
+      <c r="BN17" s="6"/>
+      <c r="BO17" s="6"/>
+      <c r="BP17" s="6"/>
+      <c r="BQ17" s="6"/>
+      <c r="BR17" s="6"/>
+      <c r="BS17" s="6"/>
+      <c r="BT17" s="6"/>
+      <c r="BU17" s="6"/>
+      <c r="BV17" s="6"/>
+      <c r="BW17" s="6"/>
+      <c r="BX17" s="6"/>
+      <c r="BY17" s="6"/>
+      <c r="BZ17" s="6"/>
+      <c r="CA17" s="6"/>
+      <c r="CB17" s="6"/>
+      <c r="CC17" s="6"/>
+      <c r="CD17" s="6"/>
+      <c r="CE17" s="6"/>
+      <c r="CF17" s="6"/>
+      <c r="CG17" s="6"/>
+      <c r="CH17" s="6"/>
+      <c r="CI17" s="6"/>
+      <c r="CJ17" s="6"/>
+      <c r="CK17" s="6"/>
+      <c r="CL17" s="6"/>
+      <c r="CM17" s="6"/>
+      <c r="CN17" s="6"/>
+      <c r="CO17" s="6"/>
+      <c r="CP17" s="6"/>
+      <c r="CQ17" s="6"/>
+      <c r="CR17" s="6"/>
+      <c r="CS17" s="6"/>
+      <c r="CT17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="CU17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CV17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="CW17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY17" s="6"/>
+      <c r="CZ17" s="6"/>
+      <c r="DA17" s="6"/>
+      <c r="DB17" s="6"/>
+      <c r="DC17" s="6"/>
+      <c r="DD17" s="6"/>
+      <c r="DE17" s="6"/>
+      <c r="DF17" s="6"/>
+      <c r="DG17" s="6"/>
+      <c r="DH17" s="6"/>
+      <c r="DI17" s="6"/>
+      <c r="DJ17" s="6"/>
+      <c r="DK17" s="6"/>
+      <c r="DL17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <v>45391.62585254629</v>
+        <v>45391.62482696759</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="V18" s="3">
-        <v>57.26</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="X18" s="3">
-        <v>56.21</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>56.3</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>58.45</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>56.21</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>57.34</v>
+        <v>84</v>
+      </c>
+      <c r="O18" s="3">
+        <v>17.97</v>
+      </c>
+      <c r="P18" s="3">
+        <v>19.87</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>15.38</v>
+      </c>
+      <c r="R18" s="3">
+        <v>15.25</v>
+      </c>
+      <c r="S18" s="3">
+        <v>16.44</v>
+      </c>
+      <c r="T18" s="3">
+        <v>15.25</v>
+      </c>
+      <c r="U18" s="3">
+        <v>16.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <v>45391.66616994213</v>
+        <v>45391.62585254629</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="CO19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CP19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CQ19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CS19" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="V19" s="3">
+        <v>57.26</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19" s="3">
+        <v>56.21</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>58.45</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>56.21</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>57.34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <v>45393.49340273148</v>
+        <v>45391.66616994213</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK20" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN20" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="CO20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CQ20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CR20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CS20" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <v>45393.876713888894</v>
+        <v>45393.49340273148</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="3">
-        <v>7.33</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6.62</v>
-      </c>
-      <c r="J21" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="K21" s="3">
-        <v>5.56</v>
-      </c>
-      <c r="L21" s="3">
-        <v>5.91</v>
-      </c>
-      <c r="M21" s="3">
-        <v>5.56</v>
-      </c>
-      <c r="N21" s="3">
-        <v>6.11</v>
+        <v>91</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <v>45393.877949375004</v>
+        <v>45393.876713888894</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS22" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7.33</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6.62</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5.91</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="N22" s="3">
+        <v>6.11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <v>45393.87929434028</v>
+        <v>45393.877949375004</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AK23" s="3" t="s">
+      <c r="AO23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AL23" s="3" t="s">
+      <c r="AP23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AM23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN23" s="3" t="s">
+      <c r="AQ23" s="3" t="s">
         <v>100</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <v>45393.87982766204</v>
+        <v>45393.87929434028</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC24" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AD24" s="3" t="s">
+      <c r="AJ24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AE24" s="3" t="s">
+      <c r="AK24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AF24" s="3" t="s">
+      <c r="AL24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AG24" s="3" t="s">
+      <c r="AM24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN24" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="AH24" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI24" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <v>45393.97128863426</v>
+        <v>45393.87982766204</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC25" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="AD25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="AE25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="AF25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BV25" s="3">
-        <v>18.72</v>
-      </c>
-      <c r="BW25" s="3">
-        <v>26.44</v>
-      </c>
-      <c r="BX25" s="3">
-        <v>24.29</v>
-      </c>
-      <c r="BY25" s="3">
-        <v>18.74</v>
-      </c>
-      <c r="BZ25" s="3">
-        <v>22.52</v>
-      </c>
-      <c r="CA25" s="3">
-        <v>18.72</v>
-      </c>
-      <c r="CB25" s="3">
-        <v>21.85</v>
+      <c r="AG25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <v>45393.97181554398</v>
+        <v>45393.97128863426</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH26" s="3">
-        <v>9.56</v>
-      </c>
-      <c r="BI26" s="3">
-        <v>12.03</v>
-      </c>
-      <c r="BJ26" s="3">
-        <v>11.68</v>
-      </c>
-      <c r="BK26" s="3">
-        <v>16.81</v>
-      </c>
-      <c r="BL26" s="3">
-        <v>11.01</v>
-      </c>
-      <c r="BM26" s="3">
-        <v>9.56</v>
-      </c>
-      <c r="BN26" s="3">
-        <v>11.57</v>
+        <v>117</v>
+      </c>
+      <c r="BV26" s="3">
+        <v>18.72</v>
+      </c>
+      <c r="BW26" s="3">
+        <v>26.44</v>
+      </c>
+      <c r="BX26" s="3">
+        <v>24.29</v>
+      </c>
+      <c r="BY26" s="3">
+        <v>18.74</v>
+      </c>
+      <c r="BZ26" s="3">
+        <v>22.52</v>
+      </c>
+      <c r="CA26" s="3">
+        <v>18.72</v>
+      </c>
+      <c r="CB26" s="3">
+        <v>21.85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <v>45393.972478020834</v>
+        <v>45393.97181554398</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="CC27" s="3">
-        <v>19.43</v>
-      </c>
-      <c r="CD27" s="3">
-        <v>20.32</v>
-      </c>
-      <c r="CE27" s="3">
-        <v>20.83</v>
-      </c>
-      <c r="CF27" s="3">
-        <v>18.86</v>
-      </c>
-      <c r="CG27" s="3">
-        <v>20.58</v>
-      </c>
-      <c r="CH27" s="3">
-        <v>18.86</v>
-      </c>
-      <c r="CI27" s="3">
-        <v>20.11</v>
+        <v>117</v>
+      </c>
+      <c r="BH27" s="3">
+        <v>9.56</v>
+      </c>
+      <c r="BI27" s="3">
+        <v>12.03</v>
+      </c>
+      <c r="BJ27" s="3">
+        <v>11.68</v>
+      </c>
+      <c r="BK27" s="3">
+        <v>16.81</v>
+      </c>
+      <c r="BL27" s="3">
+        <v>11.01</v>
+      </c>
+      <c r="BM27" s="3">
+        <v>9.56</v>
+      </c>
+      <c r="BN27" s="3">
+        <v>11.57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <v>45393.9731953588</v>
+        <v>45393.972478020834</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AX28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ28" s="3" t="s">
-        <v>118</v>
+      <c r="CC28" s="3">
+        <v>19.43</v>
+      </c>
+      <c r="CD28" s="3">
+        <v>20.32</v>
+      </c>
+      <c r="CE28" s="3">
+        <v>20.83</v>
+      </c>
+      <c r="CF28" s="3">
+        <v>18.86</v>
+      </c>
+      <c r="CG28" s="3">
+        <v>20.58</v>
+      </c>
+      <c r="CH28" s="3">
+        <v>18.86</v>
+      </c>
+      <c r="CI28" s="3">
+        <v>20.11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <v>45393.9739718287</v>
+        <v>45393.9731953588</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H29" s="3">
-        <v>7.91</v>
-      </c>
-      <c r="I29" s="3">
-        <v>8.94</v>
-      </c>
-      <c r="J29" s="3">
-        <v>9.31</v>
-      </c>
-      <c r="K29" s="3">
-        <v>8.32</v>
-      </c>
-      <c r="L29" s="3">
-        <v>6.69</v>
-      </c>
-      <c r="M29" s="3">
-        <v>6.69</v>
-      </c>
-      <c r="N29" s="3">
-        <v>8.39</v>
+        <v>119</v>
+      </c>
+      <c r="AT29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ29" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <v>45393.974563553245</v>
+        <v>45393.9739718287</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O30" s="3">
-        <v>22.18</v>
-      </c>
-      <c r="P30" s="3">
-        <v>26.34</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>30.47</v>
-      </c>
-      <c r="R30" s="3">
-        <v>22.66</v>
-      </c>
-      <c r="S30" s="3">
-        <v>26.93</v>
-      </c>
-      <c r="T30" s="3">
-        <v>22.18</v>
-      </c>
-      <c r="U30" s="3">
-        <v>25.31</v>
+        <v>119</v>
+      </c>
+      <c r="H30" s="3">
+        <v>7.91</v>
+      </c>
+      <c r="I30" s="3">
+        <v>8.94</v>
+      </c>
+      <c r="J30" s="3">
+        <v>9.31</v>
+      </c>
+      <c r="K30" s="3">
+        <v>8.32</v>
+      </c>
+      <c r="L30" s="3">
+        <v>6.69</v>
+      </c>
+      <c r="M30" s="3">
+        <v>6.69</v>
+      </c>
+      <c r="N30" s="3">
+        <v>8.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <v>45393.97539366898</v>
+        <v>45393.974563553245</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="V31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>125</v>
+      <c r="O31" s="3">
+        <v>22.18</v>
+      </c>
+      <c r="P31" s="3">
+        <v>26.34</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>30.47</v>
+      </c>
+      <c r="R31" s="3">
+        <v>22.66</v>
+      </c>
+      <c r="S31" s="3">
+        <v>26.93</v>
+      </c>
+      <c r="T31" s="3">
+        <v>22.18</v>
+      </c>
+      <c r="U31" s="3">
+        <v>25.31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <v>45393.976150358794</v>
+        <v>45393.97539366898</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="W32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AD32" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AE32" s="3" t="s">
+      <c r="Y32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AF32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH32" s="3" t="s">
+      <c r="Z32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AI32" s="3" t="s">
-        <v>129</v>
+      <c r="AB32" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <v>45393.976743796295</v>
+        <v>45393.976150358794</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="CO33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CP33" s="3" t="s">
+      <c r="AG33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="CQ33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS33" s="3" t="s">
-        <v>83</v>
+      <c r="AI33" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <v>45394.06110381945</v>
+        <v>45393.976743796295</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="O34" s="3">
-        <v>19.3</v>
-      </c>
-      <c r="P34" s="3">
-        <v>17.48</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>17.02</v>
-      </c>
-      <c r="R34" s="3">
-        <v>16.61</v>
-      </c>
-      <c r="S34" s="3">
-        <v>21.61</v>
-      </c>
-      <c r="T34" s="3">
-        <v>16.61</v>
-      </c>
-      <c r="U34" s="3">
-        <v>17.93</v>
+      <c r="CO34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="CQ34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CR34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CS34" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <v>45394.51808706018</v>
+        <v>45394.06110381945</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF35" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AG35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI35" s="3" t="s">
-        <v>142</v>
+      <c r="O35" s="3">
+        <v>19.3</v>
+      </c>
+      <c r="P35" s="3">
+        <v>17.48</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>17.02</v>
+      </c>
+      <c r="R35" s="3">
+        <v>16.61</v>
+      </c>
+      <c r="S35" s="3">
+        <v>21.61</v>
+      </c>
+      <c r="T35" s="3">
+        <v>16.61</v>
+      </c>
+      <c r="U35" s="3">
+        <v>17.93</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <v>45394.55002877315</v>
+        <v>45394.51808706018</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -2804,36 +2948,36 @@
         <v>21</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD36" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AT36" s="3">
-        <v>39.3</v>
-      </c>
-      <c r="AU36" s="3">
-        <v>32.7</v>
-      </c>
-      <c r="AV36" s="3">
-        <v>28.87</v>
-      </c>
-      <c r="AW36" s="3">
-        <v>34.68</v>
-      </c>
-      <c r="AX36" s="3">
-        <v>41.82</v>
-      </c>
-      <c r="AY36" s="3">
-        <v>28.87</v>
-      </c>
-      <c r="AZ36" s="3">
-        <v>35.56</v>
+      <c r="AE36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF36" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI36" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <v>45394.61183738426</v>
+        <v>45394.55002877315</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>19</v>
@@ -2845,36 +2989,36 @@
         <v>21</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA37" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BB37" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BC37" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD37" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BE37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF37" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BG37" s="3" t="s">
-        <v>150</v>
+      <c r="AT37" s="3">
+        <v>39.3</v>
+      </c>
+      <c r="AU37" s="3">
+        <v>32.7</v>
+      </c>
+      <c r="AV37" s="3">
+        <v>28.87</v>
+      </c>
+      <c r="AW37" s="3">
+        <v>34.68</v>
+      </c>
+      <c r="AX37" s="3">
+        <v>41.82</v>
+      </c>
+      <c r="AY37" s="3">
+        <v>28.87</v>
+      </c>
+      <c r="AZ37" s="3">
+        <v>35.56</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <v>45394.68506394676</v>
+        <v>45394.61183738426</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>19</v>
@@ -2886,36 +3030,36 @@
         <v>21</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BB38" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="V38" s="3">
-        <v>46.99</v>
-      </c>
-      <c r="W38" s="3">
-        <v>58.86</v>
-      </c>
-      <c r="X38" s="3">
-        <v>54.44</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>59.22</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>57.96</v>
-      </c>
-      <c r="AA38" s="3">
-        <v>46.99</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>57.09</v>
+      <c r="BC38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG38" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <v>45394.7006471412</v>
+        <v>45394.68506394676</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -2927,270 +3071,276 @@
         <v>21</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="3">
-        <v>6.01</v>
-      </c>
-      <c r="I39" s="3">
-        <v>5.05</v>
-      </c>
-      <c r="J39" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="K39" s="3">
-        <v>6.81</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M39" s="3">
-        <v>5.05</v>
-      </c>
-      <c r="N39" s="3">
-        <v>6.07</v>
+        <v>156</v>
+      </c>
+      <c r="V39" s="3">
+        <v>46.99</v>
+      </c>
+      <c r="W39" s="3">
+        <v>58.86</v>
+      </c>
+      <c r="X39" s="3">
+        <v>54.44</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>59.22</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>57.96</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>46.99</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>57.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <v>45395.103598877315</v>
+        <v>45394.7006471412</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="P40" s="3">
-        <v>48.8</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>36.45</v>
-      </c>
-      <c r="R40" s="3">
-        <v>33.04</v>
-      </c>
-      <c r="S40" s="3">
-        <v>46.04</v>
-      </c>
-      <c r="T40" s="3">
-        <v>33.04</v>
-      </c>
-      <c r="U40" s="3">
-        <v>43.76</v>
+        <v>157</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6.01</v>
+      </c>
+      <c r="I40" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="J40" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="K40" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M40" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="N40" s="3">
+        <v>6.07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <v>45395.10521521991</v>
+        <v>45395.103598877315</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H41" s="3">
-        <v>9.65</v>
-      </c>
-      <c r="I41" s="3">
-        <v>8.13</v>
-      </c>
-      <c r="J41" s="3">
-        <v>6.06</v>
-      </c>
-      <c r="K41" s="3">
-        <v>7.53</v>
-      </c>
-      <c r="L41" s="3">
-        <v>11.14</v>
-      </c>
-      <c r="M41" s="3">
-        <v>6.06</v>
-      </c>
-      <c r="N41" s="3">
-        <v>8.44</v>
+        <v>160</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P41" s="3">
+        <v>48.8</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>36.45</v>
+      </c>
+      <c r="R41" s="3">
+        <v>33.04</v>
+      </c>
+      <c r="S41" s="3">
+        <v>46.04</v>
+      </c>
+      <c r="T41" s="3">
+        <v>33.04</v>
+      </c>
+      <c r="U41" s="3">
+        <v>43.76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <v>45395.10691997685</v>
+        <v>45395.10521521991</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH42" s="3">
-        <v>27.34</v>
-      </c>
-      <c r="BI42" s="3">
-        <v>20.82</v>
-      </c>
-      <c r="BJ42" s="3">
-        <v>12.25</v>
-      </c>
-      <c r="BK42" s="3">
-        <v>30.54</v>
-      </c>
-      <c r="BL42" s="3">
-        <v>13.07</v>
-      </c>
-      <c r="BM42" s="3">
-        <v>12.25</v>
-      </c>
-      <c r="BN42" s="3">
-        <v>20.41</v>
+        <v>162</v>
+      </c>
+      <c r="H42" s="3">
+        <v>9.65</v>
+      </c>
+      <c r="I42" s="3">
+        <v>8.13</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6.06</v>
+      </c>
+      <c r="K42" s="3">
+        <v>7.53</v>
+      </c>
+      <c r="L42" s="3">
+        <v>11.14</v>
+      </c>
+      <c r="M42" s="3">
+        <v>6.06</v>
+      </c>
+      <c r="N42" s="3">
+        <v>8.44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <v>45395.10816069444</v>
+        <v>45395.10691997685</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="CC43" s="3">
-        <v>13.43</v>
-      </c>
-      <c r="CD43" s="3">
-        <v>13.96</v>
-      </c>
-      <c r="CE43" s="3">
-        <v>15.67</v>
-      </c>
-      <c r="CF43" s="3">
-        <v>15.73</v>
-      </c>
-      <c r="CG43" s="3">
-        <v>14.71</v>
-      </c>
-      <c r="CH43" s="3">
-        <v>13.43</v>
-      </c>
-      <c r="CI43" s="3">
-        <v>14.78</v>
+        <v>163</v>
+      </c>
+      <c r="BH43" s="3">
+        <v>27.34</v>
+      </c>
+      <c r="BI43" s="3">
+        <v>20.82</v>
+      </c>
+      <c r="BJ43" s="3">
+        <v>12.25</v>
+      </c>
+      <c r="BK43" s="3">
+        <v>30.54</v>
+      </c>
+      <c r="BL43" s="3">
+        <v>13.07</v>
+      </c>
+      <c r="BM43" s="3">
+        <v>12.25</v>
+      </c>
+      <c r="BN43" s="3">
+        <v>20.41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <v>45395.51185659722</v>
+        <v>45395.10816069444</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="CO44" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="CP44" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="CQ44" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CR44" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CS44" s="3" t="s">
         <v>164</v>
+      </c>
+      <c r="CC44" s="3">
+        <v>13.43</v>
+      </c>
+      <c r="CD44" s="3">
+        <v>13.96</v>
+      </c>
+      <c r="CE44" s="3">
+        <v>15.67</v>
+      </c>
+      <c r="CF44" s="3">
+        <v>15.73</v>
+      </c>
+      <c r="CG44" s="3">
+        <v>14.71</v>
+      </c>
+      <c r="CH44" s="3">
+        <v>13.43</v>
+      </c>
+      <c r="CI44" s="3">
+        <v>14.78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <v>45395.52137109954</v>
+        <v>45395.51185659722</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AJ45" s="3" t="s">
+      <c r="CO45" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AK45" s="3" t="s">
+      <c r="CP45" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AL45" s="3" t="s">
+      <c r="CQ45" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AM45" s="3" t="s">
+      <c r="CR45" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AN45" s="3" t="s">
+      <c r="CS45" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <v>45395.52328606481</v>
+        <v>45395.52137109954</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>30</v>
@@ -3202,1240 +3352,1313 @@
         <v>32</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="AJ46" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="X46" s="3" t="s">
+      <c r="AK46" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="Y46" s="3" t="s">
+      <c r="AL46" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Z46" s="3" t="s">
+      <c r="AM46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN46" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB46" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <v>45395.76885746528</v>
+        <v>45395.52328606481</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="V47" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="W47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="X47" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="Z47" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="CJ47" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="CK47" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="CL47" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="CM47" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="CN47" s="3">
-        <v>38.67</v>
+      <c r="AA47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <v>45396.554626909725</v>
+        <v>45395.76885746528</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>58</v>
+        <v>183</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6.43</v>
-      </c>
-      <c r="I48" s="3">
-        <v>9.09</v>
-      </c>
-      <c r="J48" s="3">
-        <v>8.71</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5.37</v>
-      </c>
-      <c r="L48" s="3">
-        <v>13.83</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5.37</v>
-      </c>
-      <c r="N48" s="3">
-        <v>8.08</v>
+        <v>184</v>
+      </c>
+      <c r="CJ48" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="CK48" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="CL48" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="CM48" s="3">
+        <v>38.0</v>
+      </c>
+      <c r="CN48" s="3">
+        <v>38.67</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <v>45396.55577277778</v>
+        <v>45396.554626909725</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="O49" s="3">
-        <v>23.23</v>
-      </c>
-      <c r="P49" s="3">
-        <v>19.98</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>24.42</v>
-      </c>
-      <c r="R49" s="3">
-        <v>17.92</v>
-      </c>
-      <c r="S49" s="3">
-        <v>20.04</v>
-      </c>
-      <c r="T49" s="3">
-        <v>17.92</v>
-      </c>
-      <c r="U49" s="3">
-        <v>21.08</v>
+        <v>187</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6.43</v>
+      </c>
+      <c r="I49" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8.71</v>
+      </c>
+      <c r="K49" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="L49" s="3">
+        <v>13.83</v>
+      </c>
+      <c r="M49" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="N49" s="3">
+        <v>8.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <v>45396.55696108796</v>
+        <v>45396.55577277778</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="V50" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="W50" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="X50" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y50" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Z50" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA50" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB50" s="3" t="s">
-        <v>190</v>
+      <c r="O50" s="3">
+        <v>23.23</v>
+      </c>
+      <c r="P50" s="3">
+        <v>19.98</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>24.42</v>
+      </c>
+      <c r="R50" s="3">
+        <v>17.92</v>
+      </c>
+      <c r="S50" s="3">
+        <v>20.04</v>
+      </c>
+      <c r="T50" s="3">
+        <v>17.92</v>
+      </c>
+      <c r="U50" s="3">
+        <v>21.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <v>45396.55793226852</v>
+        <v>45396.55696108796</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="X51" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AC51" s="3" t="s">
+      <c r="Y51" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AD51" s="3" t="s">
+      <c r="Z51" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AE51" s="3" t="s">
+      <c r="AA51" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB51" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="AF51" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH51" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI51" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <v>45396.626091053244</v>
+        <v>45396.55793226852</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE52" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="AF52" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="O52" s="3">
-        <v>16.68</v>
-      </c>
-      <c r="P52" s="3">
-        <v>13.28</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>24.04</v>
-      </c>
-      <c r="R52" s="3">
-        <v>21.18</v>
-      </c>
-      <c r="S52" s="3">
-        <v>16.26</v>
-      </c>
-      <c r="T52" s="3">
-        <v>13.28</v>
-      </c>
-      <c r="U52" s="3">
-        <v>18.04</v>
+      <c r="AG52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH52" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI52" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <v>45396.628760312495</v>
+        <v>45396.626091053244</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC53" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD53" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE53" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF53" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AG53" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AH53" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI53" s="3" t="s">
-        <v>208</v>
+      <c r="O53" s="3">
+        <v>16.68</v>
+      </c>
+      <c r="P53" s="3">
+        <v>13.28</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>24.04</v>
+      </c>
+      <c r="R53" s="3">
+        <v>21.18</v>
+      </c>
+      <c r="S53" s="3">
+        <v>16.26</v>
+      </c>
+      <c r="T53" s="3">
+        <v>13.28</v>
+      </c>
+      <c r="U53" s="3">
+        <v>18.04</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <v>45396.63051534722</v>
+        <v>45396.628760312495</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD54" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AO54" s="3" t="s">
+      <c r="AE54" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AP54" s="3" t="s">
+      <c r="AF54" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AQ54" s="3" t="s">
+      <c r="AG54" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AR54" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS54" s="3" t="s">
+      <c r="AH54" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI54" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <v>45396.63398326389</v>
+        <v>45396.63051534722</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="CJ55" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="CK55" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CM55" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="CN55" s="3" t="s">
-        <v>83</v>
+      <c r="AO55" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ55" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR55" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS55" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <v>45396.69997734953</v>
+        <v>45396.63398326389</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="W56" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="X56" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB56" s="3" t="s">
-        <v>221</v>
+      <c r="CJ56" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="CK56" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL56" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM56" s="3">
+        <v>36.0</v>
+      </c>
+      <c r="CN56" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <v>45396.7047984838</v>
+        <v>45396.69997734953</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="BA57" s="3" t="s">
+      <c r="W57" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="BB57" s="3" t="s">
+      <c r="X57" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="BC57" s="3" t="s">
+      <c r="Y57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB57" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="BD57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF57" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="BG57" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <v>45396.848089374995</v>
+        <v>45396.7047984838</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BA58" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="BB58" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="O58" s="3">
-        <v>19.45</v>
-      </c>
-      <c r="P58" s="3">
-        <v>16.02</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>16.31</v>
-      </c>
-      <c r="R58" s="3">
-        <v>17.59</v>
-      </c>
-      <c r="S58" s="3">
-        <v>16.72</v>
-      </c>
-      <c r="T58" s="3">
-        <v>16.02</v>
-      </c>
-      <c r="U58" s="3">
-        <v>16.87</v>
+      <c r="BC58" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF58" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG58" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <v>45396.9458591088</v>
+        <v>45396.848089374995</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC59" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AD59" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AE59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF59" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG59" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH59" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="AI59" s="3" t="s">
-        <v>237</v>
+      <c r="O59" s="3">
+        <v>19.45</v>
+      </c>
+      <c r="P59" s="3">
+        <v>16.02</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>16.31</v>
+      </c>
+      <c r="R59" s="3">
+        <v>17.59</v>
+      </c>
+      <c r="S59" s="3">
+        <v>16.72</v>
+      </c>
+      <c r="T59" s="3">
+        <v>16.02</v>
+      </c>
+      <c r="U59" s="3">
+        <v>16.87</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <v>45396.94823296297</v>
+        <v>45396.9458591088</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="V60" s="3" t="s">
+      <c r="AC60" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="W60" s="3" t="s">
+      <c r="AD60" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="X60" s="3" t="s">
+      <c r="AE60" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Y60" s="3" t="s">
+      <c r="AF60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH60" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI60" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="Z60" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB60" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <v>45396.949723275466</v>
+        <v>45396.94823296297</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="W61" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="BV61" s="3">
-        <v>28.31</v>
-      </c>
-      <c r="BW61" s="3">
-        <v>31.68</v>
-      </c>
-      <c r="BX61" s="3">
-        <v>53.55</v>
-      </c>
-      <c r="BY61" s="3">
-        <v>32.22</v>
-      </c>
-      <c r="BZ61" s="3">
-        <v>36.61</v>
-      </c>
-      <c r="CA61" s="3">
-        <v>28.31</v>
-      </c>
-      <c r="CB61" s="3">
-        <v>33.5</v>
+      <c r="X61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y61" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z61" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <v>45396.95105261574</v>
+        <v>45396.949723275466</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="CC62" s="3">
-        <v>15.19</v>
-      </c>
-      <c r="CD62" s="3">
-        <v>14.83</v>
-      </c>
-      <c r="CE62" s="3">
-        <v>21.4</v>
-      </c>
-      <c r="CF62" s="3">
-        <v>14.53</v>
-      </c>
-      <c r="CG62" s="3">
-        <v>12.79</v>
-      </c>
-      <c r="CH62" s="3">
-        <v>12.79</v>
-      </c>
-      <c r="CI62" s="3">
-        <v>14.85</v>
+        <v>250</v>
+      </c>
+      <c r="BV62" s="3">
+        <v>28.31</v>
+      </c>
+      <c r="BW62" s="3">
+        <v>31.68</v>
+      </c>
+      <c r="BX62" s="3">
+        <v>53.55</v>
+      </c>
+      <c r="BY62" s="3">
+        <v>32.22</v>
+      </c>
+      <c r="BZ62" s="3">
+        <v>36.61</v>
+      </c>
+      <c r="CA62" s="3">
+        <v>28.31</v>
+      </c>
+      <c r="CB62" s="3">
+        <v>33.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <v>45396.952668287035</v>
+        <v>45396.95105261574</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AT63" s="3">
-        <v>51.31</v>
-      </c>
-      <c r="AU63" s="3">
-        <v>58.41</v>
-      </c>
-      <c r="AV63" s="3">
-        <v>45.03</v>
-      </c>
-      <c r="AW63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY63" s="3">
-        <v>45.03</v>
-      </c>
-      <c r="AZ63" s="3">
-        <v>51.58</v>
+        <v>251</v>
+      </c>
+      <c r="CC63" s="3">
+        <v>15.19</v>
+      </c>
+      <c r="CD63" s="3">
+        <v>14.83</v>
+      </c>
+      <c r="CE63" s="3">
+        <v>21.4</v>
+      </c>
+      <c r="CF63" s="3">
+        <v>14.53</v>
+      </c>
+      <c r="CG63" s="3">
+        <v>12.79</v>
+      </c>
+      <c r="CH63" s="3">
+        <v>12.79</v>
+      </c>
+      <c r="CI63" s="3">
+        <v>14.85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <v>45396.95369607639</v>
+        <v>45396.952668287035</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="BO64" s="3">
-        <v>4.86</v>
-      </c>
-      <c r="BP64" s="3">
-        <v>6.33</v>
-      </c>
-      <c r="BQ64" s="3">
-        <v>7.04</v>
-      </c>
-      <c r="BR64" s="3">
-        <v>9.02</v>
-      </c>
-      <c r="BS64" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="BT64" s="3">
-        <v>4.86</v>
-      </c>
-      <c r="BU64" s="3">
-        <v>6.29</v>
+        <v>252</v>
+      </c>
+      <c r="AT64" s="3">
+        <v>51.31</v>
+      </c>
+      <c r="AU64" s="3">
+        <v>58.41</v>
+      </c>
+      <c r="AV64" s="3">
+        <v>45.03</v>
+      </c>
+      <c r="AW64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY64" s="3">
+        <v>45.03</v>
+      </c>
+      <c r="AZ64" s="3">
+        <v>51.58</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <v>45396.954004722225</v>
+        <v>45396.95369607639</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="O65" s="3">
-        <v>19.57</v>
-      </c>
-      <c r="P65" s="3">
-        <v>23.31</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>26.77</v>
-      </c>
-      <c r="R65" s="3">
-        <v>20.93</v>
-      </c>
-      <c r="S65" s="3">
-        <v>27.04</v>
-      </c>
-      <c r="T65" s="3">
-        <v>19.57</v>
-      </c>
-      <c r="U65" s="3">
-        <v>23.67</v>
+        <v>253</v>
+      </c>
+      <c r="BO65" s="3">
+        <v>4.86</v>
+      </c>
+      <c r="BP65" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="BQ65" s="3">
+        <v>7.04</v>
+      </c>
+      <c r="BR65" s="3">
+        <v>9.02</v>
+      </c>
+      <c r="BS65" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="BT65" s="3">
+        <v>4.86</v>
+      </c>
+      <c r="BU65" s="3">
+        <v>6.29</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <v>45396.956121435185</v>
+        <v>45396.954004722225</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H66" s="3">
-        <v>11.57</v>
-      </c>
-      <c r="I66" s="3">
-        <v>10.59</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5.89</v>
-      </c>
-      <c r="K66" s="3">
-        <v>8.13</v>
-      </c>
-      <c r="L66" s="3">
-        <v>7.49</v>
-      </c>
-      <c r="M66" s="3">
-        <v>5.89</v>
-      </c>
-      <c r="N66" s="3">
-        <v>8.74</v>
+        <v>255</v>
+      </c>
+      <c r="O66" s="3">
+        <v>19.57</v>
+      </c>
+      <c r="P66" s="3">
+        <v>23.31</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>26.77</v>
+      </c>
+      <c r="R66" s="3">
+        <v>20.93</v>
+      </c>
+      <c r="S66" s="3">
+        <v>27.04</v>
+      </c>
+      <c r="T66" s="3">
+        <v>19.57</v>
+      </c>
+      <c r="U66" s="3">
+        <v>23.67</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <v>45397.05591671296</v>
+        <v>45396.956121435185</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC67" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD67" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AE67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH67" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AI67" s="3" t="s">
-        <v>83</v>
+      <c r="H67" s="3">
+        <v>11.57</v>
+      </c>
+      <c r="I67" s="3">
+        <v>10.59</v>
+      </c>
+      <c r="J67" s="3">
+        <v>5.89</v>
+      </c>
+      <c r="K67" s="3">
+        <v>8.13</v>
+      </c>
+      <c r="L67" s="3">
+        <v>7.49</v>
+      </c>
+      <c r="M67" s="3">
+        <v>5.89</v>
+      </c>
+      <c r="N67" s="3">
+        <v>8.74</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <v>45397.05685137732</v>
+        <v>45397.05591671296</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="V68" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="W68" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="X68" s="3" t="s">
+      <c r="AC68" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Y68" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z68" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA68" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB68" s="3" t="s">
+      <c r="AD68" s="3" t="s">
         <v>261</v>
+      </c>
+      <c r="AE68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH68" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI68" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <v>45397.05799350694</v>
+        <v>45397.05685137732</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BA69" s="3" t="s">
+      <c r="V69" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="BB69" s="3" t="s">
+      <c r="W69" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="BC69" s="3" t="s">
+      <c r="X69" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="BD69" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE69" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BF69" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="BG69" s="3" t="s">
+      <c r="Y69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA69" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB69" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <v>45397.05874432871</v>
+        <v>45397.05799350694</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="O70" s="3">
-        <v>25.64</v>
-      </c>
-      <c r="P70" s="3">
-        <v>25.54</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>21.28</v>
-      </c>
-      <c r="R70" s="3">
-        <v>22.33</v>
-      </c>
-      <c r="S70" s="3">
-        <v>25.76</v>
-      </c>
-      <c r="T70" s="3">
-        <v>21.28</v>
-      </c>
-      <c r="U70" s="3">
-        <v>24.5</v>
+      <c r="BA70" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BB70" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="BC70" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="BD70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF70" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BG70" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <v>45397.059478379626</v>
+        <v>45397.05874432871</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H71" s="3">
-        <v>4.61</v>
-      </c>
-      <c r="I71" s="3">
-        <v>8.86</v>
-      </c>
-      <c r="J71" s="3">
-        <v>7.93</v>
-      </c>
-      <c r="K71" s="3">
-        <v>8.01</v>
-      </c>
-      <c r="L71" s="3">
-        <v>7.33</v>
-      </c>
-      <c r="M71" s="3">
-        <v>4.61</v>
-      </c>
-      <c r="N71" s="3">
-        <v>7.76</v>
+        <v>272</v>
+      </c>
+      <c r="O71" s="3">
+        <v>25.64</v>
+      </c>
+      <c r="P71" s="3">
+        <v>25.54</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>21.28</v>
+      </c>
+      <c r="R71" s="3">
+        <v>22.33</v>
+      </c>
+      <c r="S71" s="3">
+        <v>25.76</v>
+      </c>
+      <c r="T71" s="3">
+        <v>21.28</v>
+      </c>
+      <c r="U71" s="3">
+        <v>24.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <v>45397.06041658565</v>
+        <v>45397.059478379626</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="BH72" s="3">
-        <v>11.46</v>
-      </c>
-      <c r="BI72" s="3">
-        <v>18.13</v>
-      </c>
-      <c r="BJ72" s="3">
-        <v>12.09</v>
-      </c>
-      <c r="BK72" s="3">
-        <v>10.52</v>
-      </c>
-      <c r="BL72" s="3">
-        <v>12.53</v>
-      </c>
-      <c r="BM72" s="3">
-        <v>10.52</v>
-      </c>
-      <c r="BN72" s="3">
-        <v>12.03</v>
+        <v>273</v>
+      </c>
+      <c r="H72" s="3">
+        <v>4.61</v>
+      </c>
+      <c r="I72" s="3">
+        <v>8.86</v>
+      </c>
+      <c r="J72" s="3">
+        <v>7.93</v>
+      </c>
+      <c r="K72" s="3">
+        <v>8.01</v>
+      </c>
+      <c r="L72" s="3">
+        <v>7.33</v>
+      </c>
+      <c r="M72" s="3">
+        <v>4.61</v>
+      </c>
+      <c r="N72" s="3">
+        <v>7.76</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <v>45397.061012210645</v>
+        <v>45397.06041658565</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="BO73" s="3">
+        <v>274</v>
+      </c>
+      <c r="BH73" s="3">
+        <v>11.46</v>
+      </c>
+      <c r="BI73" s="3">
+        <v>18.13</v>
+      </c>
+      <c r="BJ73" s="3">
+        <v>12.09</v>
+      </c>
+      <c r="BK73" s="3">
+        <v>10.52</v>
+      </c>
+      <c r="BL73" s="3">
         <v>12.53</v>
       </c>
-      <c r="BP73" s="3">
-        <v>8.42</v>
-      </c>
-      <c r="BQ73" s="3">
-        <v>11.23</v>
-      </c>
-      <c r="BR73" s="3">
-        <v>17.03</v>
-      </c>
-      <c r="BS73" s="3">
-        <v>13.36</v>
-      </c>
-      <c r="BT73" s="3">
-        <v>8.42</v>
-      </c>
-      <c r="BU73" s="3">
-        <v>12.37</v>
+      <c r="BM73" s="3">
+        <v>10.52</v>
+      </c>
+      <c r="BN73" s="3">
+        <v>12.03</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <v>45397.06172383102</v>
+        <v>45397.061012210645</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="CC74" s="3">
-        <v>10.75</v>
-      </c>
-      <c r="CD74" s="3">
-        <v>8.97</v>
-      </c>
-      <c r="CE74" s="3">
-        <v>11.26</v>
-      </c>
-      <c r="CF74" s="3">
-        <v>9.93</v>
-      </c>
-      <c r="CG74" s="3">
-        <v>9.69</v>
-      </c>
-      <c r="CH74" s="3">
-        <v>8.97</v>
-      </c>
-      <c r="CI74" s="3">
-        <v>10.12</v>
+        <v>275</v>
+      </c>
+      <c r="BO74" s="3">
+        <v>12.53</v>
+      </c>
+      <c r="BP74" s="3">
+        <v>8.42</v>
+      </c>
+      <c r="BQ74" s="3">
+        <v>11.23</v>
+      </c>
+      <c r="BR74" s="3">
+        <v>17.03</v>
+      </c>
+      <c r="BS74" s="3">
+        <v>13.36</v>
+      </c>
+      <c r="BT74" s="3">
+        <v>8.42</v>
+      </c>
+      <c r="BU74" s="3">
+        <v>12.37</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <v>45397.06258269676</v>
+        <v>45397.06172383102</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="BV75" s="3">
-        <v>53.67</v>
-      </c>
-      <c r="BW75" s="3">
-        <v>38.67</v>
-      </c>
-      <c r="BX75" s="3">
-        <v>45.17</v>
-      </c>
-      <c r="BY75" s="3">
-        <v>57.24</v>
-      </c>
-      <c r="BZ75" s="3">
-        <v>47.18</v>
-      </c>
-      <c r="CA75" s="3">
-        <v>38.67</v>
-      </c>
-      <c r="CB75" s="3">
-        <v>48.67</v>
+        <v>276</v>
+      </c>
+      <c r="CC75" s="3">
+        <v>10.75</v>
+      </c>
+      <c r="CD75" s="3">
+        <v>8.97</v>
+      </c>
+      <c r="CE75" s="3">
+        <v>11.26</v>
+      </c>
+      <c r="CF75" s="3">
+        <v>9.93</v>
+      </c>
+      <c r="CG75" s="3">
+        <v>9.69</v>
+      </c>
+      <c r="CH75" s="3">
+        <v>8.97</v>
+      </c>
+      <c r="CI75" s="3">
+        <v>10.12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
+        <v>45397.06258269676</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV76" s="3">
+        <v>53.67</v>
+      </c>
+      <c r="BW76" s="3">
+        <v>38.67</v>
+      </c>
+      <c r="BX76" s="3">
+        <v>45.17</v>
+      </c>
+      <c r="BY76" s="3">
+        <v>57.24</v>
+      </c>
+      <c r="BZ76" s="3">
+        <v>47.18</v>
+      </c>
+      <c r="CA76" s="3">
+        <v>38.67</v>
+      </c>
+      <c r="CB76" s="3">
+        <v>48.67</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
         <v>45397.10911763889</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B77" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="CJ76" s="3">
+      <c r="D77" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="CJ77" s="3">
         <v>36.0</v>
       </c>
-      <c r="CK76" s="3">
+      <c r="CK77" s="3">
         <v>27.0</v>
       </c>
-      <c r="CL76" s="3">
+      <c r="CL77" s="3">
         <v>36.0</v>
       </c>
-      <c r="CM76" s="3">
+      <c r="CM77" s="3">
         <v>27.0</v>
       </c>
-      <c r="CN76" s="3">
+      <c r="CN77" s="3">
         <v>33.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>45398.76870721065</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="CO78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CP78" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="CQ78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CR78" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="CS78" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4515,7 +4738,9 @@
     <hyperlink r:id="rId73" ref="F74"/>
     <hyperlink r:id="rId74" ref="F75"/>
     <hyperlink r:id="rId75" ref="F76"/>
+    <hyperlink r:id="rId76" ref="F77"/>
+    <hyperlink r:id="rId77" ref="F78"/>
   </hyperlinks>
-  <drawing r:id="rId76"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>